--- a/Class_TimeTable.xlsx
+++ b/Class_TimeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lihas\Documents\Shayaan\AcadEase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A8C855-E7E0-46BA-8226-731A90F7C91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73220BB0-22D7-405E-B024-A30B211C83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FEB5E4AE-DFBD-44FE-95D6-F429A63B90BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="18">
   <si>
     <t>English</t>
   </si>
@@ -69,13 +69,28 @@
     <t>Period/Day</t>
   </si>
   <si>
-    <t>Teacher TimeTable</t>
-  </si>
-  <si>
     <t>Sports</t>
   </si>
   <si>
     <t>Library</t>
+  </si>
+  <si>
+    <t>11A TimeTable</t>
+  </si>
+  <si>
+    <t>11B TimeTable</t>
+  </si>
+  <si>
+    <t>12ATimeTable</t>
+  </si>
+  <si>
+    <t>12B TimeTable</t>
+  </si>
+  <si>
+    <t>Short Break</t>
+  </si>
+  <si>
+    <t>Lunch Break</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -154,19 +169,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171CA256-6FA7-481A-BC4B-1D7417FDECD9}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,14 +557,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -552,7 +613,7 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -566,88 +627,110 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -655,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4D01C-85B6-4CCA-897D-870B2C6ED1D5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,14 +753,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -740,88 +823,110 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -829,10 +934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606694ED-91EC-4C3D-8B41-32883A6FEBD8}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,14 +949,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -890,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -914,88 +1019,110 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1003,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052958B5-2E28-449F-8252-444A14174D22}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,14 +1145,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1083,93 +1210,115 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
